--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_20-26.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_20-26.xlsx
@@ -59,6 +59,12 @@
     <t>ALEAVIA 20ML DROPS</t>
   </si>
   <si>
+    <t>ALKAPRESS 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>AMARYL 3 MG 30 TABS</t>
   </si>
   <si>
@@ -84,9 +90,6 @@
   </si>
   <si>
     <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>1:1</t>
   </si>
   <si>
     <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
@@ -1200,17 +1203,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -1226,17 +1229,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -1258,11 +1261,11 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1284,11 +1287,11 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1310,11 +1313,11 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1330,17 +1333,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1348,7 +1351,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1356,17 +1359,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1388,11 +1391,11 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1408,17 +1411,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>-28</v>
+        <v>32</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1426,7 +1429,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1434,13 +1437,13 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>69</v>
+        <v>-28</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
@@ -1460,13 +1463,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1486,17 +1489,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1512,17 +1515,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1538,17 +1541,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1564,17 +1567,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1590,17 +1593,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1608,7 +1611,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1616,17 +1619,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1642,17 +1645,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1668,17 +1671,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1694,17 +1697,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1712,7 +1715,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1720,17 +1723,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1738,7 +1741,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1746,17 +1749,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1764,7 +1767,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1772,17 +1775,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1790,7 +1793,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1798,13 +1801,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>92</v>
+        <v>27.5</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1824,13 +1827,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1842,7 +1845,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1850,13 +1853,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1876,17 +1879,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1894,7 +1897,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1902,13 +1905,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1920,7 +1923,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1928,13 +1931,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1954,17 +1957,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>122.5</v>
+        <v>27</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1980,17 +1983,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>194</v>
+        <v>122.5</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -2006,17 +2009,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -2032,17 +2035,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -2050,7 +2053,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -2058,17 +2061,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2076,7 +2079,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2084,17 +2087,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2110,13 +2113,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -2136,13 +2139,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -2162,17 +2165,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2188,17 +2191,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2214,17 +2217,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2240,17 +2243,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2266,17 +2269,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2292,13 +2295,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2318,13 +2321,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2344,17 +2347,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>30.670000000000002</v>
+        <v>34</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2370,17 +2373,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>100</v>
+        <v>30.670000000000002</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2396,17 +2399,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2422,17 +2425,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2448,17 +2451,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2474,13 +2477,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2506,11 +2509,11 @@
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2526,17 +2529,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>-290</v>
+        <v>84</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2552,13 +2555,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>200</v>
+        <v>-290</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2578,13 +2581,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2604,13 +2607,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2630,13 +2633,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2662,11 +2665,11 @@
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>72.5</v>
+        <v>55</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2682,17 +2685,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>27.329999999999998</v>
+        <v>72.5</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2700,7 +2703,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2708,17 +2711,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>274</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2734,17 +2737,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>31</v>
+        <v>274</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2760,17 +2763,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2786,17 +2789,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2812,17 +2815,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>-57</v>
+        <v>75</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2838,17 +2841,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>39</v>
+        <v>-57</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2864,17 +2867,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2890,17 +2893,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2916,17 +2919,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2934,7 +2937,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2942,17 +2945,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2968,17 +2971,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>76.439999999999998</v>
+        <v>28</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2994,17 +2997,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>270</v>
+        <v>76.439999999999998</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -3020,17 +3023,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3038,7 +3041,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -3046,17 +3049,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3072,17 +3075,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3098,17 +3101,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3124,17 +3127,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3150,17 +3153,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3176,13 +3179,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
@@ -3208,11 +3211,11 @@
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3234,7 +3237,7 @@
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3254,17 +3257,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3280,13 +3283,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>7.0499999999999998</v>
+        <v>67</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3306,13 +3309,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>47.670000000000002</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
@@ -3324,7 +3327,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3332,17 +3335,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>89.099999999999994</v>
+        <v>47.670000000000002</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3358,17 +3361,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>27</v>
+        <v>89.099999999999994</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3384,13 +3387,13 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>-185</v>
+        <v>27</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
@@ -3410,17 +3413,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>71</v>
+        <v>-185</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3436,17 +3439,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3462,17 +3465,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3488,17 +3491,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>45.5</v>
+        <v>39</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3506,7 +3509,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3514,17 +3517,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>60</v>
+        <v>45.5</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3546,7 +3549,7 @@
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
@@ -3566,13 +3569,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
@@ -3592,17 +3595,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3618,17 +3621,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3650,11 +3653,11 @@
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3670,17 +3673,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3696,17 +3699,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3722,17 +3725,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3748,17 +3751,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3774,13 +3777,13 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
@@ -3800,17 +3803,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3826,17 +3829,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>140</v>
+        <v>57</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3844,7 +3847,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3852,17 +3855,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3878,17 +3881,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3904,13 +3907,13 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
@@ -3930,7 +3933,7 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
@@ -3956,13 +3959,13 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
@@ -3974,7 +3977,7 @@
         <v>112</v>
       </c>
       <c t="s" r="B115" s="7">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -3982,13 +3985,13 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
@@ -4008,17 +4011,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="M116" s="9"/>
       <c t="s" r="N116" s="7">
-        <v>150</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4026,7 +4029,7 @@
         <v>114</v>
       </c>
       <c t="s" r="B117" s="7">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -4034,17 +4037,17 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="M117" s="9"/>
       <c t="s" r="N117" s="7">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4052,7 +4055,7 @@
         <v>115</v>
       </c>
       <c t="s" r="B118" s="7">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4060,17 +4063,17 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>190</v>
+        <v>22</v>
       </c>
       <c r="M118" s="9"/>
       <c t="s" r="N118" s="7">
-        <v>9</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4086,13 +4089,13 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="M119" s="9"/>
       <c t="s" r="N119" s="7">
@@ -4112,13 +4115,13 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="M120" s="9"/>
       <c t="s" r="N120" s="7">
@@ -4138,13 +4141,13 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="M121" s="9"/>
       <c t="s" r="N121" s="7">
@@ -4156,7 +4159,7 @@
         <v>119</v>
       </c>
       <c t="s" r="B122" s="7">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -4164,13 +4167,13 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>9</v>
+        <v>159</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>68.599999999999994</v>
+        <v>10</v>
       </c>
       <c r="M122" s="9"/>
       <c t="s" r="N122" s="7">
@@ -4190,13 +4193,13 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>15</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="M123" s="9"/>
       <c t="s" r="N123" s="7">
@@ -4216,13 +4219,13 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>44.549999999999997</v>
+        <v>15</v>
       </c>
       <c r="M124" s="9"/>
       <c t="s" r="N124" s="7">
@@ -4242,13 +4245,13 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>30</v>
+        <v>44.549999999999997</v>
       </c>
       <c r="M125" s="9"/>
       <c t="s" r="N125" s="7">
@@ -4260,7 +4263,7 @@
         <v>123</v>
       </c>
       <c t="s" r="B126" s="7">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -4268,51 +4271,77 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="M126" s="9"/>
       <c t="s" r="N126" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="127" ht="26.25" customHeight="1">
-      <c r="K127" s="10">
-        <v>6784.9099999999999</v>
-      </c>
-      <c r="L127" s="10"/>
-      <c r="M127" s="10"/>
-      <c r="N127" s="10"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="6">
+        <v>124</v>
+      </c>
+      <c t="s" r="B127" s="7">
         <v>165</v>
       </c>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
-      <c r="E128" s="11"/>
-      <c t="s" r="F128" s="12">
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c t="s" r="H127" s="8">
+        <v>164</v>
+      </c>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="8"/>
+      <c r="L127" s="9">
+        <v>70</v>
+      </c>
+      <c r="M127" s="9"/>
+      <c t="s" r="N127" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" ht="25.5" customHeight="1">
+      <c r="K128" s="10">
+        <v>6813.9099999999999</v>
+      </c>
+      <c r="L128" s="10"/>
+      <c r="M128" s="10"/>
+      <c r="N128" s="10"/>
+    </row>
+    <row r="129" ht="17.25" customHeight="1">
+      <c t="s" r="A129" s="11">
         <v>166</v>
       </c>
-      <c r="G128" s="12"/>
-      <c r="H128" s="13"/>
-      <c t="s" r="I128" s="14">
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c t="s" r="F129" s="12">
         <v>167</v>
       </c>
-      <c r="J128" s="14"/>
-      <c r="K128" s="14"/>
-      <c r="L128" s="14"/>
-      <c r="M128" s="14"/>
-      <c r="N128" s="14"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="13"/>
+      <c t="s" r="I129" s="14">
+        <v>168</v>
+      </c>
+      <c r="J129" s="14"/>
+      <c r="K129" s="14"/>
+      <c r="L129" s="14"/>
+      <c r="M129" s="14"/>
+      <c r="N129" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="380">
+  <mergeCells count="383">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4689,10 +4718,13 @@
     <mergeCell ref="B126:G126"/>
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
-    <mergeCell ref="K127:N127"/>
-    <mergeCell ref="A128:E128"/>
-    <mergeCell ref="F128:G128"/>
-    <mergeCell ref="I128:N128"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="K128:N128"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="F129:G129"/>
+    <mergeCell ref="I129:N129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
